--- a/data/processed/X_test_sin_outliers_scal.xlsx
+++ b/data/processed/X_test_sin_outliers_scal.xlsx
@@ -480,10 +480,10 @@
         <v>0.3529411764705882</v>
       </c>
       <c r="B2" t="n">
-        <v>0.492462311557789</v>
+        <v>0.3760617760617761</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4754098360655738</v>
+        <v>0.3194444444444444</v>
       </c>
       <c r="D2" t="n">
         <v>0.5238095238095237</v>
@@ -492,10 +492,10 @@
         <v>0.5972495088408644</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5067064083457526</v>
+        <v>0.5551075268817203</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1502988898377455</v>
+        <v>0.3137254901960785</v>
       </c>
       <c r="H2" t="n">
         <v>0.3666666666666667</v>
@@ -506,10 +506,10 @@
         <v>0.1176470588235294</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5628140703517588</v>
+        <v>0.4625482625482626</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6147540983606558</v>
+        <v>0.5555555555555554</v>
       </c>
       <c r="D3" t="n">
         <v>0.5079365079365079</v>
@@ -518,10 +518,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5320417287630403</v>
+        <v>0.6008064516129032</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02988898377455165</v>
+        <v>0.06238859180035652</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -532,10 +532,10 @@
         <v>0.1176470588235294</v>
       </c>
       <c r="B4" t="n">
-        <v>0.542713567839196</v>
+        <v>0.4378378378378379</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5245901639344263</v>
+        <v>0.4027777777777777</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -544,10 +544,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.459016393442623</v>
+        <v>0.4690860215053763</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03415883859948761</v>
+        <v>0.07130124777183602</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -558,10 +558,10 @@
         <v>0.4705882352941176</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5376884422110553</v>
+        <v>0.4316602316602317</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6557377049180328</v>
+        <v>0.625</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -570,10 +570,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3666169895678093</v>
+        <v>0.3024193548387097</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3321947053800171</v>
+        <v>0.6934046345811051</v>
       </c>
       <c r="H5" t="n">
         <v>0.2166666666666667</v>
@@ -584,10 +584,10 @@
         <v>0.4117647058823529</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6834170854271356</v>
+        <v>0.6108108108108108</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7377049180327869</v>
+        <v>0.7638888888888888</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -596,10 +596,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4456035767511178</v>
+        <v>0.4448924731182795</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05636208368915456</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="H6" t="n">
         <v>0.4833333333333334</v>
@@ -610,10 +610,10 @@
         <v>0.3529411764705882</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5175879396984925</v>
+        <v>0.4069498069498069</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5901639344262295</v>
+        <v>0.5138888888888888</v>
       </c>
       <c r="D7" t="n">
         <v>0.5079365079365079</v>
@@ -622,10 +622,10 @@
         <v>0.5972495088408644</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5618479880774964</v>
+        <v>0.6545698924731183</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1050384286934244</v>
+        <v>0.2192513368983958</v>
       </c>
       <c r="H7" t="n">
         <v>0.5666666666666667</v>
@@ -636,10 +636,10 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="B8" t="n">
-        <v>0.3567839195979899</v>
+        <v>0.2092664092664093</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3934426229508197</v>
+        <v>0.1805555555555555</v>
       </c>
       <c r="D8" t="n">
         <v>0.2857142857142857</v>
@@ -648,10 +648,10 @@
         <v>0.2388998035363458</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3040238450074516</v>
+        <v>0.189516129032258</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1046114432109308</v>
+        <v>0.2183600713012478</v>
       </c>
       <c r="H8" t="n">
         <v>0.01666666666666666</v>
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5879396984924623</v>
+        <v>0.4934362934362934</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -674,10 +674,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.503725782414307</v>
+        <v>0.5497311827956988</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3646456020495303</v>
+        <v>0.7611408199643495</v>
       </c>
       <c r="H9" t="n">
         <v>0.3833333333333333</v>
@@ -688,10 +688,10 @@
         <v>0.2352941176470588</v>
       </c>
       <c r="B10" t="n">
-        <v>0.7738693467336684</v>
+        <v>0.7220077220077219</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5901639344262295</v>
+        <v>0.5138888888888888</v>
       </c>
       <c r="D10" t="n">
         <v>0.4603174603174603</v>
@@ -700,10 +700,10 @@
         <v>0.3960707269155206</v>
       </c>
       <c r="F10" t="n">
-        <v>0.466467958271237</v>
+        <v>0.4825268817204301</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1110162254483348</v>
+        <v>0.2317290552584671</v>
       </c>
       <c r="H10" t="n">
         <v>0.2666666666666667</v>
@@ -714,10 +714,10 @@
         <v>0.2941176470588235</v>
       </c>
       <c r="B11" t="n">
-        <v>0.7386934673366834</v>
+        <v>0.6787644787644789</v>
       </c>
       <c r="C11" t="n">
-        <v>0.639344262295082</v>
+        <v>0.5972222222222221</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -726,10 +726,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5022354694485843</v>
+        <v>0.5470430107526882</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05977796754910332</v>
+        <v>0.124777183600713</v>
       </c>
       <c r="H11" t="n">
         <v>0.7333333333333333</v>
@@ -740,10 +740,10 @@
         <v>0.5882352941176471</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5577889447236181</v>
+        <v>0.4563706563706564</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5737704918032788</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="D12" t="n">
         <v>0.4285714285714285</v>
@@ -752,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4098360655737706</v>
+        <v>0.3803763440860214</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02690008539709649</v>
+        <v>0.05614973262032086</v>
       </c>
       <c r="H12" t="n">
         <v>0.3166666666666667</v>
@@ -766,10 +766,10 @@
         <v>0.4117647058823529</v>
       </c>
       <c r="B13" t="n">
-        <v>0.8994974874371859</v>
+        <v>0.8764478764478765</v>
       </c>
       <c r="C13" t="n">
-        <v>0.778688524590164</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="D13" t="n">
         <v>0.492063492063492</v>
@@ -778,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5096870342771983</v>
+        <v>0.560483870967742</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03672075149444919</v>
+        <v>0.07664884135472372</v>
       </c>
       <c r="H13" t="n">
         <v>0.65</v>
@@ -792,10 +792,10 @@
         <v>0.2352941176470588</v>
       </c>
       <c r="B14" t="n">
-        <v>0.7437185929648241</v>
+        <v>0.6849420849420849</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4918032786885246</v>
+        <v>0.3472222222222222</v>
       </c>
       <c r="D14" t="n">
         <v>0.4285714285714285</v>
@@ -804,10 +804,10 @@
         <v>0.999607072691552</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4605067064083458</v>
+        <v>0.471774193548387</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03074295473953885</v>
+        <v>0.06417112299465241</v>
       </c>
       <c r="H14" t="n">
         <v>0.1333333333333334</v>
@@ -818,10 +818,10 @@
         <v>0.2941176470588235</v>
       </c>
       <c r="B15" t="n">
-        <v>0.4824120603015075</v>
+        <v>0.3637065637065637</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6065573770491803</v>
+        <v>0.5416666666666665</v>
       </c>
       <c r="D15" t="n">
         <v>0.2857142857142857</v>
@@ -830,10 +830,10 @@
         <v>0.2106090373280943</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5007451564828614</v>
+        <v>0.5443548387096775</v>
       </c>
       <c r="G15" t="n">
-        <v>0.392399658411614</v>
+        <v>0.8190730837789661</v>
       </c>
       <c r="H15" t="n">
         <v>0.3666666666666667</v>
@@ -844,10 +844,10 @@
         <v>0.1176470588235294</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4422110552763819</v>
+        <v>0.3142857142857143</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4754098360655738</v>
+        <v>0.3194444444444444</v>
       </c>
       <c r="D16" t="n">
         <v>0.4126984126984127</v>
@@ -856,10 +856,10 @@
         <v>0.05029469548133595</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4232488822652757</v>
+        <v>0.4045698924731182</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2937660119555935</v>
+        <v>0.6131907308377897</v>
       </c>
       <c r="H16" t="n">
         <v>0.01666666666666666</v>
@@ -870,10 +870,10 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="B17" t="n">
-        <v>0.628140703517588</v>
+        <v>0.5428571428571429</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4098360655737705</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="D17" t="n">
         <v>0.6349206349206349</v>
@@ -882,10 +882,10 @@
         <v>0.524950884086444</v>
       </c>
       <c r="F17" t="n">
-        <v>0.496274217585693</v>
+        <v>0.536290322580645</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3774551665243381</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="H17" t="n">
         <v>0.1166666666666667</v>
@@ -896,10 +896,10 @@
         <v>0.1764705882352941</v>
       </c>
       <c r="B18" t="n">
-        <v>0.4221105527638191</v>
+        <v>0.2895752895752896</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5901639344262295</v>
+        <v>0.5138888888888888</v>
       </c>
       <c r="D18" t="n">
         <v>0.5079365079365079</v>
@@ -908,10 +908,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5543964232488824</v>
+        <v>0.6411290322580645</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0807002561912895</v>
+        <v>0.1684491978609626</v>
       </c>
       <c r="H18" t="n">
         <v>0.1166666666666667</v>
@@ -922,10 +922,10 @@
         <v>0.2941176470588235</v>
       </c>
       <c r="B19" t="n">
-        <v>0.4321608040201005</v>
+        <v>0.3019305019305019</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5573770491803279</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="D19" t="n">
         <v>0.4444444444444444</v>
@@ -934,10 +934,10 @@
         <v>0.2231827111984283</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4500745156482862</v>
+        <v>0.4529569892473117</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1221178479931682</v>
+        <v>0.2549019607843138</v>
       </c>
       <c r="H19" t="n">
         <v>0.05000000000000004</v>
@@ -948,7 +948,7 @@
         <v>0.2352941176470588</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9195979899497487</v>
+        <v>0.9011583011583013</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -960,10 +960,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4232488822652757</v>
+        <v>0.4045698924731182</v>
       </c>
       <c r="G20" t="n">
-        <v>0.05721605465414176</v>
+        <v>0.1194295900178253</v>
       </c>
       <c r="H20" t="n">
         <v>0.25</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7035175879396985</v>
+        <v>0.6355212355212356</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5327868852459017</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="D21" t="n">
         <v>0.4126984126984127</v>
@@ -986,10 +986,10 @@
         <v>0.4086444007858546</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6348733233979137</v>
+        <v>0.786290322580645</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1507258753202391</v>
+        <v>0.3146167557932264</v>
       </c>
       <c r="H21" t="n">
         <v>0.05000000000000004</v>
@@ -1000,10 +1000,10 @@
         <v>0.2941176470588235</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5226130653266332</v>
+        <v>0.4131274131274131</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6065573770491803</v>
+        <v>0.5416666666666665</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.429210134128167</v>
+        <v>0.4153225806451613</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03202391118701964</v>
+        <v>0.06684491978609627</v>
       </c>
       <c r="H22" t="n">
         <v>0.4500000000000001</v>
@@ -1026,10 +1026,10 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="B23" t="n">
-        <v>0.4422110552763819</v>
+        <v>0.3142857142857143</v>
       </c>
       <c r="C23" t="n">
-        <v>0.639344262295082</v>
+        <v>0.5972222222222221</v>
       </c>
       <c r="D23" t="n">
         <v>0.4603174603174603</v>
@@ -1038,10 +1038,10 @@
         <v>0.2388998035363458</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4769001490312966</v>
+        <v>0.5013440860215053</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1225448334756618</v>
+        <v>0.2557932263814617</v>
       </c>
       <c r="H23" t="n">
         <v>0.1333333333333334</v>
@@ -1052,10 +1052,10 @@
         <v>0.7647058823529411</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5326633165829145</v>
+        <v>0.4254826254826254</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5901639344262295</v>
+        <v>0.5138888888888888</v>
       </c>
       <c r="D24" t="n">
         <v>0.8571428571428571</v>
@@ -1064,10 +1064,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5454545454545455</v>
+        <v>0.625</v>
       </c>
       <c r="G24" t="n">
-        <v>0.04269854824935951</v>
+        <v>0.08912655971479502</v>
       </c>
       <c r="H24" t="n">
         <v>0.4</v>
@@ -1078,10 +1078,10 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="B25" t="n">
-        <v>0.4824120603015075</v>
+        <v>0.3637065637065637</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5245901639344263</v>
+        <v>0.4027777777777777</v>
       </c>
       <c r="D25" t="n">
         <v>0.4285714285714285</v>
@@ -1090,10 +1090,10 @@
         <v>0.2734774066797642</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4947839046199703</v>
+        <v>0.5336021505376345</v>
       </c>
       <c r="G25" t="n">
-        <v>0.09009393680614858</v>
+        <v>0.1880570409982175</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0.5882352941176471</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6482412060301508</v>
+        <v>0.5675675675675675</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6229508196721312</v>
+        <v>0.5694444444444444</v>
       </c>
       <c r="D26" t="n">
         <v>0.4444444444444444</v>
@@ -1116,10 +1116,10 @@
         <v>0.3834970530451866</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5350223546944859</v>
+        <v>0.6061827956989245</v>
       </c>
       <c r="G26" t="n">
-        <v>0.08625106746370624</v>
+        <v>0.180035650623886</v>
       </c>
       <c r="H26" t="n">
         <v>0.3</v>
@@ -1130,10 +1130,10 @@
         <v>0.4117647058823529</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9246231155778895</v>
+        <v>0.9073359073359073</v>
       </c>
       <c r="C27" t="n">
-        <v>0.6885245901639344</v>
+        <v>0.6805555555555554</v>
       </c>
       <c r="D27" t="n">
         <v>0.5238095238095237</v>
@@ -1142,10 +1142,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.5290611028315947</v>
+        <v>0.5954301075268817</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1182749786507259</v>
+        <v>0.2468805704099822</v>
       </c>
       <c r="H27" t="n">
         <v>0.3333333333333334</v>
@@ -1156,10 +1156,10 @@
         <v>0.3529411764705882</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5477386934673367</v>
+        <v>0.444015444015444</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4918032786885246</v>
+        <v>0.3472222222222222</v>
       </c>
       <c r="D28" t="n">
         <v>0.4285714285714285</v>
@@ -1168,10 +1168,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3725782414307005</v>
+        <v>0.3131720430107527</v>
       </c>
       <c r="G28" t="n">
-        <v>0.05465414175918018</v>
+        <v>0.1140819964349376</v>
       </c>
       <c r="H28" t="n">
         <v>0.1</v>
@@ -1182,10 +1182,10 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5025125628140703</v>
+        <v>0.3884169884169884</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6065573770491803</v>
+        <v>0.5416666666666665</v>
       </c>
       <c r="D29" t="n">
         <v>0.1904761904761905</v>
@@ -1194,10 +1194,10 @@
         <v>0.1445972495088409</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2906110283159464</v>
+        <v>0.1653225806451613</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03031596925704526</v>
+        <v>0.06327985739750447</v>
       </c>
       <c r="H29" t="n">
         <v>0.1166666666666667</v>
@@ -1208,10 +1208,10 @@
         <v>0.1176470588235294</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5125628140703518</v>
+        <v>0.4007722007722008</v>
       </c>
       <c r="C30" t="n">
-        <v>0.7049180327868853</v>
+        <v>0.7083333333333333</v>
       </c>
       <c r="D30" t="n">
         <v>0.5714285714285714</v>
@@ -1220,10 +1220,10 @@
         <v>0.3772102161100196</v>
       </c>
       <c r="F30" t="n">
-        <v>0.6780923994038749</v>
+        <v>0.8642473118279568</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02092228864218616</v>
+        <v>0.04367201426024957</v>
       </c>
       <c r="H30" t="n">
         <v>0.03333333333333333</v>
@@ -1234,10 +1234,10 @@
         <v>0.1764705882352941</v>
       </c>
       <c r="B31" t="n">
-        <v>0.4472361809045226</v>
+        <v>0.3204633204633204</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6065573770491803</v>
+        <v>0.5416666666666665</v>
       </c>
       <c r="D31" t="n">
         <v>0.253968253968254</v>
@@ -1246,10 +1246,10 @@
         <v>0.2671905697445973</v>
       </c>
       <c r="F31" t="n">
-        <v>0.4530551415797318</v>
+        <v>0.4583333333333332</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2019641332194705</v>
+        <v>0.4215686274509805</v>
       </c>
       <c r="H31" t="n">
         <v>0.2833333333333333</v>
@@ -1260,10 +1260,10 @@
         <v>0</v>
       </c>
       <c r="B32" t="n">
-        <v>0.8140703517587939</v>
+        <v>0.7714285714285716</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6229508196721312</v>
+        <v>0.5694444444444444</v>
       </c>
       <c r="D32" t="n">
         <v>0.8888888888888888</v>
@@ -1272,10 +1272,10 @@
         <v>0.3143418467583497</v>
       </c>
       <c r="F32" t="n">
-        <v>0.7928464977645306</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>0.2907771135781383</v>
+        <v>0.606951871657754</v>
       </c>
       <c r="H32" t="n">
         <v>0.06666666666666671</v>
@@ -1286,10 +1286,10 @@
         <v>0.2352941176470588</v>
       </c>
       <c r="B33" t="n">
-        <v>0.7336683417085427</v>
+        <v>0.6725868725868727</v>
       </c>
       <c r="C33" t="n">
-        <v>0.639344262295082</v>
+        <v>0.5972222222222221</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -1298,10 +1298,10 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.5737704918032788</v>
+        <v>0.6760752688172043</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1887275832621691</v>
+        <v>0.393939393939394</v>
       </c>
       <c r="H33" t="n">
         <v>0.7666666666666667</v>
@@ -1312,10 +1312,10 @@
         <v>0.2352941176470588</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9246231155778895</v>
+        <v>0.9073359073359073</v>
       </c>
       <c r="C34" t="n">
-        <v>0.639344262295082</v>
+        <v>0.5972222222222221</v>
       </c>
       <c r="D34" t="n">
         <v>0.6190476190476191</v>
@@ -1324,10 +1324,10 @@
         <v>0.8707269155206286</v>
       </c>
       <c r="F34" t="n">
-        <v>0.5514157973174367</v>
+        <v>0.635752688172043</v>
       </c>
       <c r="G34" t="n">
-        <v>0.07941929974380871</v>
+        <v>0.1657754010695187</v>
       </c>
       <c r="H34" t="n">
         <v>0.1666666666666666</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8391959798994975</v>
+        <v>0.8023166023166024</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.481371087928465</v>
+        <v>0.5094086021505375</v>
       </c>
       <c r="G35" t="n">
-        <v>0.3249359521776259</v>
+        <v>0.67825311942959</v>
       </c>
       <c r="H35" t="n">
         <v>0.15</v>
@@ -1364,10 +1364,10 @@
         <v>0.1176470588235294</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5477386934673367</v>
+        <v>0.444015444015444</v>
       </c>
       <c r="C36" t="n">
-        <v>0.7540983606557378</v>
+        <v>0.7916666666666665</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -1376,10 +1376,10 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.6363636363636365</v>
+        <v>0.7889784946236558</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3274978650725875</v>
+        <v>0.6836007130124777</v>
       </c>
       <c r="H36" t="n">
         <v>0.55</v>
@@ -1390,10 +1390,10 @@
         <v>0.5294117647058824</v>
       </c>
       <c r="B37" t="n">
-        <v>0.7638190954773869</v>
+        <v>0.7096525096525097</v>
       </c>
       <c r="C37" t="n">
-        <v>0.639344262295082</v>
+        <v>0.5972222222222221</v>
       </c>
       <c r="D37" t="n">
         <v>0.5396825396825397</v>
@@ -1402,10 +1402,10 @@
         <v>0.537524557956778</v>
       </c>
       <c r="F37" t="n">
-        <v>0.5096870342771983</v>
+        <v>0.560483870967742</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3479931682322801</v>
+        <v>0.7263814616755795</v>
       </c>
       <c r="H37" t="n">
         <v>0.2000000000000001</v>
@@ -1416,10 +1416,10 @@
         <v>0.1176470588235294</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9899497487437187</v>
+        <v>0.9876447876447878</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5737704918032788</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="D38" t="n">
         <v>1.26984126984127</v>
@@ -1428,10 +1428,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.5171385991058123</v>
+        <v>0.5739247311827957</v>
       </c>
       <c r="G38" t="n">
-        <v>0.2122117847993168</v>
+        <v>0.4429590017825312</v>
       </c>
       <c r="H38" t="n">
         <v>0.6833333333333332</v>
@@ -1442,10 +1442,10 @@
         <v>0</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5477386934673367</v>
+        <v>0.444015444015444</v>
       </c>
       <c r="C39" t="n">
-        <v>0.7213114754098361</v>
+        <v>0.7361111111111109</v>
       </c>
       <c r="D39" t="n">
         <v>0.4761904761904762</v>
@@ -1454,10 +1454,10 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.4843517138599107</v>
+        <v>0.514784946236559</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3317677198975235</v>
+        <v>0.6925133689839573</v>
       </c>
       <c r="H39" t="n">
         <v>0.2833333333333333</v>
@@ -1468,10 +1468,10 @@
         <v>0.7058823529411764</v>
       </c>
       <c r="B40" t="n">
-        <v>0.6080402010050251</v>
+        <v>0.5181467181467181</v>
       </c>
       <c r="C40" t="n">
-        <v>0.639344262295082</v>
+        <v>0.5972222222222221</v>
       </c>
       <c r="D40" t="n">
         <v>0.2698412698412698</v>
@@ -1480,10 +1480,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3949329359165425</v>
+        <v>0.3534946236559139</v>
       </c>
       <c r="G40" t="n">
-        <v>0.07728437233134074</v>
+        <v>0.161319073083779</v>
       </c>
       <c r="H40" t="n">
         <v>0.6833333333333332</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="B41" t="n">
-        <v>0.6582914572864321</v>
+        <v>0.57992277992278</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1506,10 +1506,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.6438152011922504</v>
+        <v>0.8024193548387095</v>
       </c>
       <c r="G41" t="n">
-        <v>0.08198121263877028</v>
+        <v>0.1711229946524065</v>
       </c>
       <c r="H41" t="n">
         <v>0.08333333333333337</v>
@@ -1520,10 +1520,10 @@
         <v>0.2352941176470588</v>
       </c>
       <c r="B42" t="n">
-        <v>0.4271356783919598</v>
+        <v>0.2957528957528957</v>
       </c>
       <c r="C42" t="n">
-        <v>0.4754098360655738</v>
+        <v>0.3194444444444444</v>
       </c>
       <c r="D42" t="n">
         <v>0.3492063492063492</v>
@@ -1532,10 +1532,10 @@
         <v>0.1540275049115913</v>
       </c>
       <c r="F42" t="n">
-        <v>0.4143070044709389</v>
+        <v>0.3884408602150537</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0973526900085397</v>
+        <v>0.2032085561497327</v>
       </c>
       <c r="H42" t="n">
         <v>0.1166666666666667</v>
@@ -1546,10 +1546,10 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="B43" t="n">
-        <v>0.678391959798995</v>
+        <v>0.6046332046332046</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4426229508196722</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -1558,10 +1558,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.3979135618479881</v>
+        <v>0.3588709677419354</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2600341588385995</v>
+        <v>0.5427807486631018</v>
       </c>
       <c r="H43" t="n">
         <v>0.6833333333333332</v>
@@ -1572,10 +1572,10 @@
         <v>0.2941176470588235</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5477386934673367</v>
+        <v>0.444015444015444</v>
       </c>
       <c r="C44" t="n">
-        <v>0.6147540983606558</v>
+        <v>0.5555555555555554</v>
       </c>
       <c r="D44" t="n">
         <v>0.4126984126984127</v>
@@ -1584,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.5365126676602087</v>
+        <v>0.6088709677419355</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1998292058070026</v>
+        <v>0.4171122994652407</v>
       </c>
       <c r="H44" t="n">
         <v>0.65</v>
@@ -1598,10 +1598,10 @@
         <v>0.7647058823529411</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5226130653266332</v>
+        <v>0.4131274131274131</v>
       </c>
       <c r="C45" t="n">
-        <v>0.5901639344262295</v>
+        <v>0.5138888888888888</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -1610,10 +1610,10 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.4649776453055142</v>
+        <v>0.4798387096774193</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1652433817250213</v>
+        <v>0.3449197860962567</v>
       </c>
       <c r="H45" t="n">
         <v>0.2833333333333333</v>
@@ -1624,10 +1624,10 @@
         <v>0.3529411764705882</v>
       </c>
       <c r="B46" t="n">
-        <v>0.4623115577889447</v>
+        <v>0.338996138996139</v>
       </c>
       <c r="C46" t="n">
-        <v>0.7540983606557378</v>
+        <v>0.7916666666666665</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -1636,10 +1636,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.2965722801788376</v>
+        <v>0.1760752688172042</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04696840307429546</v>
+        <v>0.09803921568627452</v>
       </c>
       <c r="H46" t="n">
         <v>0.1166666666666667</v>
@@ -1650,10 +1650,10 @@
         <v>0.1764705882352941</v>
       </c>
       <c r="B47" t="n">
-        <v>0.7939698492462312</v>
+        <v>0.7467181467181467</v>
       </c>
       <c r="C47" t="n">
-        <v>0.6229508196721312</v>
+        <v>0.5694444444444444</v>
       </c>
       <c r="D47" t="n">
         <v>0.5714285714285714</v>
@@ -1662,10 +1662,10 @@
         <v>0.7701375245579567</v>
       </c>
       <c r="F47" t="n">
-        <v>0.4709388971684054</v>
+        <v>0.4905913978494623</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3300597779675491</v>
+        <v>0.6889483065953654</v>
       </c>
       <c r="H47" t="n">
         <v>0.1166666666666667</v>
@@ -1676,10 +1676,10 @@
         <v>0.2352941176470588</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5577889447236181</v>
+        <v>0.4563706563706564</v>
       </c>
       <c r="C48" t="n">
-        <v>0.5901639344262295</v>
+        <v>0.5138888888888888</v>
       </c>
       <c r="D48" t="n">
         <v>0.746031746031746</v>
@@ -1688,10 +1688,10 @@
         <v>0.6506876227897839</v>
       </c>
       <c r="F48" t="n">
-        <v>0.5529061102831595</v>
+        <v>0.6384408602150538</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5602049530315968</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
         <v>0.5833333333333334</v>
@@ -1702,10 +1702,10 @@
         <v>0.2941176470588235</v>
       </c>
       <c r="B49" t="n">
-        <v>0.4773869346733668</v>
+        <v>0.3575289575289576</v>
       </c>
       <c r="C49" t="n">
-        <v>0.5901639344262295</v>
+        <v>0.5138888888888888</v>
       </c>
       <c r="D49" t="n">
         <v>0.5238095238095237</v>
@@ -1714,10 +1714,10 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>0.5618479880774964</v>
+        <v>0.6545698924731183</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1246797608881298</v>
+        <v>0.2602495543672014</v>
       </c>
       <c r="H49" t="n">
         <v>0.1</v>
@@ -1728,10 +1728,10 @@
         <v>0.4705882352941176</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5628140703517588</v>
+        <v>0.4625482625482626</v>
       </c>
       <c r="C50" t="n">
-        <v>0.5901639344262295</v>
+        <v>0.5138888888888888</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -1740,10 +1740,10 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0.3517138599105813</v>
+        <v>0.2755376344086022</v>
       </c>
       <c r="G50" t="n">
-        <v>0.3253629376601195</v>
+        <v>0.679144385026738</v>
       </c>
       <c r="H50" t="n">
         <v>0.6166666666666667</v>
@@ -1754,10 +1754,10 @@
         <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>0.8693467336683417</v>
+        <v>0.8393822393822394</v>
       </c>
       <c r="C51" t="n">
-        <v>0.639344262295082</v>
+        <v>0.5972222222222221</v>
       </c>
       <c r="D51" t="n">
         <v>0.5079365079365079</v>
@@ -1766,10 +1766,10 @@
         <v>0.8330058939096266</v>
       </c>
       <c r="F51" t="n">
-        <v>0.692995529061103</v>
+        <v>0.8911290322580643</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4615713065755764</v>
+        <v>0.9634581105169342</v>
       </c>
       <c r="H51" t="n">
         <v>0.6166666666666667</v>
@@ -1780,10 +1780,10 @@
         <v>0.2352941176470588</v>
       </c>
       <c r="B52" t="n">
-        <v>0.4723618090452261</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="C52" t="n">
-        <v>0.5327868852459017</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="D52" t="n">
         <v>0.3492063492063492</v>
@@ -1792,10 +1792,10 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3681073025335321</v>
+        <v>0.3051075268817203</v>
       </c>
       <c r="G52" t="n">
-        <v>0.02988898377455165</v>
+        <v>0.06238859180035652</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -1806,10 +1806,10 @@
         <v>0.5294117647058824</v>
       </c>
       <c r="B53" t="n">
-        <v>0.7286432160804021</v>
+        <v>0.6664092664092665</v>
       </c>
       <c r="C53" t="n">
-        <v>0.7213114754098361</v>
+        <v>0.7361111111111109</v>
       </c>
       <c r="D53" t="n">
         <v>0.5396825396825397</v>
@@ -1818,10 +1818,10 @@
         <v>0.518664047151277</v>
       </c>
       <c r="F53" t="n">
-        <v>0.451564828614009</v>
+        <v>0.4556451612903226</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2959009393680615</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="H53" t="n">
         <v>0.5333333333333333</v>
@@ -1832,10 +1832,10 @@
         <v>0.7058823529411764</v>
       </c>
       <c r="B54" t="n">
-        <v>0.7035175879396985</v>
+        <v>0.6355212355212356</v>
       </c>
       <c r="C54" t="n">
-        <v>0.6721311475409837</v>
+        <v>0.6527777777777777</v>
       </c>
       <c r="D54" t="n">
         <v>0.6825396825396826</v>
@@ -1844,10 +1844,10 @@
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>0.5842026825633384</v>
+        <v>0.6948924731182795</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1921434671221178</v>
+        <v>0.4010695187165776</v>
       </c>
       <c r="H54" t="n">
         <v>0.6166666666666667</v>
@@ -1858,10 +1858,10 @@
         <v>0.1176470588235294</v>
       </c>
       <c r="B55" t="n">
-        <v>0.6733668341708543</v>
+        <v>0.5984555984555984</v>
       </c>
       <c r="C55" t="n">
-        <v>0.5737704918032788</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -1870,10 +1870,10 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>0.4307004470938898</v>
+        <v>0.4180107526881719</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1981212638770282</v>
+        <v>0.4135472370766489</v>
       </c>
       <c r="H55" t="n">
         <v>0.03333333333333333</v>
@@ -1884,10 +1884,10 @@
         <v>0</v>
       </c>
       <c r="B56" t="n">
-        <v>0.6984924623115578</v>
+        <v>0.6293436293436294</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5081967213114754</v>
+        <v>0.3749999999999999</v>
       </c>
       <c r="D56" t="n">
         <v>0.2698412698412698</v>
@@ -1896,10 +1896,10 @@
         <v>0.6601178781925343</v>
       </c>
       <c r="F56" t="n">
-        <v>0.3293591654247393</v>
+        <v>0.2352150537634408</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05508112724167377</v>
+        <v>0.1149732620320856</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -1910,10 +1910,10 @@
         <v>0.1764705882352941</v>
       </c>
       <c r="B57" t="n">
-        <v>0.3718592964824121</v>
+        <v>0.2277992277992278</v>
       </c>
       <c r="C57" t="n">
-        <v>0.5573770491803279</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="D57" t="n">
         <v>0.4444444444444444</v>
@@ -1922,10 +1922,10 @@
         <v>0.1414538310412574</v>
       </c>
       <c r="F57" t="n">
-        <v>0.4426229508196722</v>
+        <v>0.439516129032258</v>
       </c>
       <c r="G57" t="n">
-        <v>0.09180187873612296</v>
+        <v>0.1916221033868093</v>
       </c>
       <c r="H57" t="n">
         <v>0.03333333333333333</v>
@@ -1936,10 +1936,10 @@
         <v>0.2941176470588235</v>
       </c>
       <c r="B58" t="n">
-        <v>0.7939698492462312</v>
+        <v>0.7467181467181467</v>
       </c>
       <c r="C58" t="n">
-        <v>0.5737704918032788</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -1948,10 +1948,10 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>0.444113263785395</v>
+        <v>0.4422043010752688</v>
       </c>
       <c r="G58" t="n">
-        <v>0.05508112724167377</v>
+        <v>0.1149732620320856</v>
       </c>
       <c r="H58" t="n">
         <v>0.7000000000000001</v>
@@ -1962,7 +1962,7 @@
         <v>0.1764705882352941</v>
       </c>
       <c r="B59" t="n">
-        <v>0.4020100502512563</v>
+        <v>0.2648648648648649</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1977,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04099060631938513</v>
+        <v>0.08556149732620322</v>
       </c>
       <c r="H59" t="n">
         <v>0.01666666666666666</v>
@@ -1988,10 +1988,10 @@
         <v>0.1176470588235294</v>
       </c>
       <c r="B60" t="n">
-        <v>0.6080402010050251</v>
+        <v>0.5181467181467181</v>
       </c>
       <c r="C60" t="n">
-        <v>0.5737704918032788</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="D60" t="n">
         <v>0.5079365079365079</v>
@@ -2000,10 +2000,10 @@
         <v>0.2986247544204322</v>
       </c>
       <c r="F60" t="n">
-        <v>0.5827123695976156</v>
+        <v>0.6922043010752688</v>
       </c>
       <c r="G60" t="n">
-        <v>0.3450042698548249</v>
+        <v>0.7201426024955437</v>
       </c>
       <c r="H60" t="n">
         <v>0.03333333333333333</v>
@@ -2014,10 +2014,10 @@
         <v>0.2941176470588235</v>
       </c>
       <c r="B61" t="n">
-        <v>0.8442211055276382</v>
+        <v>0.8084942084942086</v>
       </c>
       <c r="C61" t="n">
-        <v>0.5245901639344263</v>
+        <v>0.4027777777777777</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
@@ -2026,10 +2026,10 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>0.4903129657228018</v>
+        <v>0.525537634408602</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02433817250213493</v>
+        <v>0.05080213903743318</v>
       </c>
       <c r="H61" t="n">
         <v>0.3333333333333334</v>
@@ -2040,10 +2040,10 @@
         <v>0.4705882352941176</v>
       </c>
       <c r="B62" t="n">
-        <v>0.7738693467336684</v>
+        <v>0.7220077220077219</v>
       </c>
       <c r="C62" t="n">
-        <v>0.639344262295082</v>
+        <v>0.5972222222222221</v>
       </c>
       <c r="D62" t="n">
         <v>0.5079365079365079</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>0.4828614008941878</v>
+        <v>0.5120967741935483</v>
       </c>
       <c r="G62" t="n">
-        <v>0.1558497011101622</v>
+        <v>0.3253119429590018</v>
       </c>
       <c r="H62" t="n">
         <v>0.4</v>
@@ -2066,10 +2066,10 @@
         <v>0.1176470588235294</v>
       </c>
       <c r="B63" t="n">
-        <v>0.6130653266331658</v>
+        <v>0.5243243243243243</v>
       </c>
       <c r="C63" t="n">
-        <v>0.5737704918032788</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="D63" t="n">
         <v>0.4285714285714285</v>
@@ -2078,10 +2078,10 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>0.5484351713859911</v>
+        <v>0.6303763440860213</v>
       </c>
       <c r="G63" t="n">
-        <v>0.111870196413322</v>
+        <v>0.233511586452763</v>
       </c>
       <c r="H63" t="n">
         <v>0.1</v>
@@ -2092,10 +2092,10 @@
         <v>0.3529411764705882</v>
       </c>
       <c r="B64" t="n">
-        <v>0.6482412060301508</v>
+        <v>0.5675675675675675</v>
       </c>
       <c r="C64" t="n">
-        <v>0.7377049180327869</v>
+        <v>0.7638888888888888</v>
       </c>
       <c r="D64" t="n">
         <v>0.1111111111111111</v>
@@ -2104,10 +2104,10 @@
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.2921013412816692</v>
+        <v>0.1680107526881721</v>
       </c>
       <c r="G64" t="n">
-        <v>0.2152006831767719</v>
+        <v>0.4491978609625668</v>
       </c>
       <c r="H64" t="n">
         <v>0.65</v>
@@ -2118,10 +2118,10 @@
         <v>0.7058823529411764</v>
       </c>
       <c r="B65" t="n">
-        <v>0.4623115577889447</v>
+        <v>0.338996138996139</v>
       </c>
       <c r="C65" t="n">
-        <v>0.5081967213114754</v>
+        <v>0.3749999999999999</v>
       </c>
       <c r="D65" t="n">
         <v>0.1111111111111111</v>
@@ -2130,10 +2130,10 @@
         <v>0.8110019646365422</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4113263785394934</v>
+        <v>0.3830645161290323</v>
       </c>
       <c r="G65" t="n">
-        <v>0.3620836891545687</v>
+        <v>0.7557932263814617</v>
       </c>
       <c r="H65" t="n">
         <v>0.3833333333333333</v>
@@ -2144,10 +2144,10 @@
         <v>0</v>
       </c>
       <c r="B66" t="n">
-        <v>0.4221105527638191</v>
+        <v>0.2895752895752896</v>
       </c>
       <c r="C66" t="n">
-        <v>0.6721311475409837</v>
+        <v>0.6527777777777777</v>
       </c>
       <c r="D66" t="n">
         <v>0.492063492063492</v>
@@ -2156,10 +2156,10 @@
         <v>0.3929273084479371</v>
       </c>
       <c r="F66" t="n">
-        <v>0.5692995529061103</v>
+        <v>0.668010752688172</v>
       </c>
       <c r="G66" t="n">
-        <v>0.06618274978650726</v>
+        <v>0.1381461675579323</v>
       </c>
       <c r="H66" t="n">
         <v>0.03333333333333333</v>
@@ -2170,10 +2170,10 @@
         <v>0</v>
       </c>
       <c r="B67" t="n">
-        <v>0.7386934673366834</v>
+        <v>0.6787644787644789</v>
       </c>
       <c r="C67" t="n">
-        <v>0.6967213114754098</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="D67" t="n">
         <v>0.8571428571428571</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>0.6378539493293592</v>
+        <v>0.7916666666666665</v>
       </c>
       <c r="G67" t="n">
-        <v>0.1268146883005978</v>
+        <v>0.2647058823529412</v>
       </c>
       <c r="H67" t="n">
         <v>0.05000000000000004</v>
@@ -2196,10 +2196,10 @@
         <v>0.1176470588235294</v>
       </c>
       <c r="B68" t="n">
-        <v>0.407035175879397</v>
+        <v>0.2710424710424711</v>
       </c>
       <c r="C68" t="n">
-        <v>0.4918032786885246</v>
+        <v>0.3472222222222222</v>
       </c>
       <c r="D68" t="n">
         <v>0.3492063492063492</v>
@@ -2208,10 +2208,10 @@
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>0.4128166915052162</v>
+        <v>0.3857526881720429</v>
       </c>
       <c r="G68" t="n">
-        <v>0.09052092228864217</v>
+        <v>0.1889483065953654</v>
       </c>
       <c r="H68" t="n">
         <v>0.06666666666666671</v>
@@ -2222,10 +2222,10 @@
         <v>0.2941176470588235</v>
       </c>
       <c r="B69" t="n">
-        <v>0.6884422110552764</v>
+        <v>0.616988416988417</v>
       </c>
       <c r="C69" t="n">
-        <v>0.8852459016393444</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
@@ -2234,10 +2234,10 @@
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.9529569892473115</v>
       </c>
       <c r="G69" t="n">
-        <v>0.06362083689154568</v>
+        <v>0.1327985739750446</v>
       </c>
       <c r="H69" t="n">
         <v>0.2666666666666667</v>
@@ -2248,10 +2248,10 @@
         <v>0</v>
       </c>
       <c r="B70" t="n">
-        <v>0.5226130653266332</v>
+        <v>0.4131274131274131</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6229508196721312</v>
+        <v>0.5694444444444444</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
@@ -2260,10 +2260,10 @@
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>0.2742175856929955</v>
+        <v>0.1357526881720429</v>
       </c>
       <c r="G70" t="n">
-        <v>0.2152006831767719</v>
+        <v>0.4491978609625668</v>
       </c>
       <c r="H70" t="n">
         <v>0.1</v>
@@ -2274,10 +2274,10 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="B71" t="n">
-        <v>0.864321608040201</v>
+        <v>0.8332046332046332</v>
       </c>
       <c r="C71" t="n">
-        <v>0.5573770491803279</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="D71" t="n">
         <v>0.7777777777777777</v>
@@ -2286,10 +2286,10 @@
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>0.631892697466468</v>
+        <v>0.7809139784946235</v>
       </c>
       <c r="G71" t="n">
-        <v>0.2664389410760034</v>
+        <v>0.5561497326203209</v>
       </c>
       <c r="H71" t="n">
         <v>0.1166666666666667</v>
@@ -2300,10 +2300,10 @@
         <v>0.4117647058823529</v>
       </c>
       <c r="B72" t="n">
-        <v>0.7537688442211056</v>
+        <v>0.6972972972972973</v>
       </c>
       <c r="C72" t="n">
-        <v>0.5409836065573771</v>
+        <v>0.4305555555555555</v>
       </c>
       <c r="D72" t="n">
         <v>0.6666666666666666</v>
@@ -2312,10 +2312,10 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.5171385991058123</v>
+        <v>0.5739247311827957</v>
       </c>
       <c r="G72" t="n">
-        <v>0.2732707087959009</v>
+        <v>0.5704099821746882</v>
       </c>
       <c r="H72" t="n">
         <v>0.35</v>
@@ -2326,10 +2326,10 @@
         <v>0.2352941176470588</v>
       </c>
       <c r="B73" t="n">
-        <v>0.4170854271356784</v>
+        <v>0.2833976833976834</v>
       </c>
       <c r="C73" t="n">
-        <v>0.7049180327868853</v>
+        <v>0.7083333333333333</v>
       </c>
       <c r="D73" t="n">
         <v>0.3015873015873016</v>
@@ -2338,10 +2338,10 @@
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>0.436661698956781</v>
+        <v>0.4287634408602151</v>
       </c>
       <c r="G73" t="n">
-        <v>0.1020495303159693</v>
+        <v>0.2130124777183601</v>
       </c>
       <c r="H73" t="n">
         <v>0.2166666666666667</v>
@@ -2352,10 +2352,10 @@
         <v>0.5294117647058824</v>
       </c>
       <c r="B74" t="n">
-        <v>0.457286432160804</v>
+        <v>0.3328185328185329</v>
       </c>
       <c r="C74" t="n">
-        <v>0.5573770491803279</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
@@ -2364,10 +2364,10 @@
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>0.360655737704918</v>
+        <v>0.2916666666666666</v>
       </c>
       <c r="G74" t="n">
-        <v>0.05209222886421862</v>
+        <v>0.1087344028520499</v>
       </c>
       <c r="H74" t="n">
         <v>0.6166666666666667</v>
@@ -2378,10 +2378,10 @@
         <v>0</v>
       </c>
       <c r="B75" t="n">
-        <v>0.4773869346733668</v>
+        <v>0.3575289575289576</v>
       </c>
       <c r="C75" t="n">
-        <v>0.6967213114754098</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="D75" t="n">
         <v>0.3968253968253968</v>
@@ -2390,10 +2390,10 @@
         <v>0.1131630648330059</v>
       </c>
       <c r="F75" t="n">
-        <v>0.5573770491803279</v>
+        <v>0.6465053763440858</v>
       </c>
       <c r="G75" t="n">
-        <v>0.07216054654141758</v>
+        <v>0.1506238859180036</v>
       </c>
       <c r="H75" t="n">
         <v>0.05000000000000004</v>
@@ -2404,10 +2404,10 @@
         <v>0.3529411764705882</v>
       </c>
       <c r="B76" t="n">
-        <v>0.5175879396984925</v>
+        <v>0.4069498069498069</v>
       </c>
       <c r="C76" t="n">
-        <v>0.5409836065573771</v>
+        <v>0.4305555555555555</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
@@ -2416,10 +2416,10 @@
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>0.3621460506706409</v>
+        <v>0.2943548387096774</v>
       </c>
       <c r="G76" t="n">
-        <v>0.07301451750640478</v>
+        <v>0.1524064171122995</v>
       </c>
       <c r="H76" t="n">
         <v>0.1333333333333334</v>
@@ -2430,10 +2430,10 @@
         <v>0.2941176470588235</v>
       </c>
       <c r="B77" t="n">
-        <v>0.5175879396984925</v>
+        <v>0.4069498069498069</v>
       </c>
       <c r="C77" t="n">
-        <v>0.8852459016393444</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="D77" t="n">
         <v>0.5873015873015872</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>0.5842026825633384</v>
+        <v>0.6948924731182795</v>
       </c>
       <c r="G77" t="n">
-        <v>0.09692570452604611</v>
+        <v>0.2023172905525847</v>
       </c>
       <c r="H77" t="n">
         <v>0.7333333333333333</v>
@@ -2456,10 +2456,10 @@
         <v>0.1176470588235294</v>
       </c>
       <c r="B78" t="n">
-        <v>0.5276381909547738</v>
+        <v>0.4193050193050193</v>
       </c>
       <c r="C78" t="n">
-        <v>0.6147540983606558</v>
+        <v>0.5555555555555554</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
@@ -2468,10 +2468,10 @@
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>0.3472429210134129</v>
+        <v>0.2674731182795699</v>
       </c>
       <c r="G78" t="n">
-        <v>0.2058070025619129</v>
+        <v>0.429590017825312</v>
       </c>
       <c r="H78" t="n">
         <v>0.5333333333333333</v>
@@ -2482,10 +2482,10 @@
         <v>0.1764705882352941</v>
       </c>
       <c r="B79" t="n">
-        <v>0.4824120603015075</v>
+        <v>0.3637065637065637</v>
       </c>
       <c r="C79" t="n">
-        <v>0.459016393442623</v>
+        <v>0.2916666666666666</v>
       </c>
       <c r="D79" t="n">
         <v>0.5396825396825397</v>
@@ -2494,10 +2494,10 @@
         <v>0.3614931237721021</v>
       </c>
       <c r="F79" t="n">
-        <v>0.3681073025335321</v>
+        <v>0.3051075268817203</v>
       </c>
       <c r="G79" t="n">
-        <v>0.3697694278394534</v>
+        <v>0.7718360071301249</v>
       </c>
       <c r="H79" t="n">
         <v>0.3</v>
@@ -2508,10 +2508,10 @@
         <v>0</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5879396984924623</v>
+        <v>0.4934362934362934</v>
       </c>
       <c r="C80" t="n">
-        <v>0.5409836065573771</v>
+        <v>0.4305555555555555</v>
       </c>
       <c r="D80" t="n">
         <v>0.492063492063492</v>
@@ -2520,10 +2520,10 @@
         <v>0.5909626719056974</v>
       </c>
       <c r="F80" t="n">
-        <v>0.459016393442623</v>
+        <v>0.4690860215053763</v>
       </c>
       <c r="G80" t="n">
-        <v>0.177198975234842</v>
+        <v>0.3698752228163993</v>
       </c>
       <c r="H80" t="n">
         <v>0.01666666666666666</v>
@@ -2534,10 +2534,10 @@
         <v>0.2352941176470588</v>
       </c>
       <c r="B81" t="n">
-        <v>0.5527638190954774</v>
+        <v>0.4501930501930502</v>
       </c>
       <c r="C81" t="n">
-        <v>0.7540983606557378</v>
+        <v>0.7916666666666665</v>
       </c>
       <c r="D81" t="n">
         <v>0</v>
@@ -2546,10 +2546,10 @@
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>0.5603576751117736</v>
+        <v>0.6518817204301075</v>
       </c>
       <c r="G81" t="n">
-        <v>0.04824935952177625</v>
+        <v>0.1007130124777184</v>
       </c>
       <c r="H81" t="n">
         <v>0.15</v>
@@ -2560,10 +2560,10 @@
         <v>0.4117647058823529</v>
       </c>
       <c r="B82" t="n">
-        <v>0.7989949748743719</v>
+        <v>0.7528957528957529</v>
       </c>
       <c r="C82" t="n">
-        <v>0.5409836065573771</v>
+        <v>0.4305555555555555</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
@@ -2572,10 +2572,10 @@
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>0.4530551415797318</v>
+        <v>0.4583333333333332</v>
       </c>
       <c r="G82" t="n">
-        <v>0.1302305721605465</v>
+        <v>0.2718360071301248</v>
       </c>
       <c r="H82" t="n">
         <v>0.25</v>
@@ -2586,10 +2586,10 @@
         <v>0</v>
       </c>
       <c r="B83" t="n">
-        <v>0.5226130653266332</v>
+        <v>0.4131274131274131</v>
       </c>
       <c r="C83" t="n">
-        <v>0.5245901639344263</v>
+        <v>0.4027777777777777</v>
       </c>
       <c r="D83" t="n">
         <v>0.5873015873015872</v>
@@ -2598,10 +2598,10 @@
         <v>0.2011787819253438</v>
       </c>
       <c r="F83" t="n">
-        <v>0.5007451564828614</v>
+        <v>0.5443548387096775</v>
       </c>
       <c r="G83" t="n">
-        <v>0.1844577284372331</v>
+        <v>0.3850267379679145</v>
       </c>
       <c r="H83" t="n">
         <v>0.01666666666666666</v>
@@ -2612,10 +2612,10 @@
         <v>0.1176470588235294</v>
       </c>
       <c r="B84" t="n">
-        <v>0.3768844221105528</v>
+        <v>0.233976833976834</v>
       </c>
       <c r="C84" t="n">
-        <v>0.5245901639344263</v>
+        <v>0.4027777777777777</v>
       </c>
       <c r="D84" t="n">
         <v>0.3809523809523809</v>
@@ -2624,10 +2624,10 @@
         <v>0.1728880157170923</v>
       </c>
       <c r="F84" t="n">
-        <v>0.4426229508196722</v>
+        <v>0.439516129032258</v>
       </c>
       <c r="G84" t="n">
-        <v>0.1246797608881298</v>
+        <v>0.2602495543672014</v>
       </c>
       <c r="H84" t="n">
         <v>0.2000000000000001</v>
@@ -2638,10 +2638,10 @@
         <v>0</v>
       </c>
       <c r="B85" t="n">
-        <v>0.678391959798995</v>
+        <v>0.6046332046332046</v>
       </c>
       <c r="C85" t="n">
-        <v>0.7704918032786886</v>
+        <v>0.8194444444444444</v>
       </c>
       <c r="D85" t="n">
         <v>0.7301587301587301</v>
@@ -2650,10 +2650,10 @@
         <v>0.4557956777996071</v>
       </c>
       <c r="F85" t="n">
-        <v>0.6050670640834576</v>
+        <v>0.73252688172043</v>
       </c>
       <c r="G85" t="n">
-        <v>0.08795900939368059</v>
+        <v>0.1836007130124777</v>
       </c>
       <c r="H85" t="n">
         <v>0.08333333333333337</v>
@@ -2664,10 +2664,10 @@
         <v>0</v>
       </c>
       <c r="B86" t="n">
-        <v>0.5979899497487438</v>
+        <v>0.5057915057915059</v>
       </c>
       <c r="C86" t="n">
-        <v>0.5245901639344263</v>
+        <v>0.4027777777777777</v>
       </c>
       <c r="D86" t="n">
         <v>0.2857142857142857</v>
@@ -2676,10 +2676,10 @@
         <v>0.2891944990176817</v>
       </c>
       <c r="F86" t="n">
-        <v>0.5201192250372578</v>
+        <v>0.579301075268817</v>
       </c>
       <c r="G86" t="n">
-        <v>0.2762596071733561</v>
+        <v>0.5766488413547237</v>
       </c>
       <c r="H86" t="n">
         <v>0.03333333333333333</v>
@@ -2690,10 +2690,10 @@
         <v>0.1764705882352941</v>
       </c>
       <c r="B87" t="n">
-        <v>0.9396984924623115</v>
+        <v>0.9258687258687259</v>
       </c>
       <c r="C87" t="n">
-        <v>0.5737704918032788</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="D87" t="n">
         <v>0.3492063492063492</v>
@@ -2702,10 +2702,10 @@
         <v>0.6286836935166994</v>
       </c>
       <c r="F87" t="n">
-        <v>0.5424739195230999</v>
+        <v>0.6196236559139783</v>
       </c>
       <c r="G87" t="n">
-        <v>0.1409052092228864</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="H87" t="n">
         <v>0.25</v>
@@ -2716,10 +2716,10 @@
         <v>0.4117647058823529</v>
       </c>
       <c r="B88" t="n">
-        <v>0.7638190954773869</v>
+        <v>0.7096525096525097</v>
       </c>
       <c r="C88" t="n">
-        <v>0.7213114754098361</v>
+        <v>0.7361111111111109</v>
       </c>
       <c r="D88" t="n">
         <v>0.6984126984126984</v>
@@ -2728,10 +2728,10 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>0.745156482861401</v>
+        <v>0.9852150537634408</v>
       </c>
       <c r="G88" t="n">
-        <v>0.1105892399658411</v>
+        <v>0.2308377896613191</v>
       </c>
       <c r="H88" t="n">
         <v>0.25</v>
@@ -2742,10 +2742,10 @@
         <v>0.1176470588235294</v>
       </c>
       <c r="B89" t="n">
-        <v>0.6231155778894473</v>
+        <v>0.5366795366795367</v>
       </c>
       <c r="C89" t="n">
-        <v>0.5573770491803279</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="D89" t="n">
         <v>0.4444444444444444</v>
@@ -2754,10 +2754,10 @@
         <v>0.6444007858546169</v>
       </c>
       <c r="F89" t="n">
-        <v>0.4903129657228018</v>
+        <v>0.525537634408602</v>
       </c>
       <c r="G89" t="n">
-        <v>0.3403074295473954</v>
+        <v>0.7103386809269163</v>
       </c>
       <c r="H89" t="n">
         <v>0.15</v>
@@ -2768,10 +2768,10 @@
         <v>0.2941176470588235</v>
       </c>
       <c r="B90" t="n">
-        <v>0.4974874371859296</v>
+        <v>0.3822393822393822</v>
       </c>
       <c r="C90" t="n">
-        <v>0.6065573770491803</v>
+        <v>0.5416666666666665</v>
       </c>
       <c r="D90" t="n">
         <v>0.4285714285714285</v>
@@ -2780,10 +2780,10 @@
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>0.4321907600596125</v>
+        <v>0.4206989247311827</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05337318531169941</v>
+        <v>0.1114081996434938</v>
       </c>
       <c r="H90" t="n">
         <v>0.1833333333333333</v>
@@ -2794,10 +2794,10 @@
         <v>0.1176470588235294</v>
       </c>
       <c r="B91" t="n">
-        <v>0.4371859296482412</v>
+        <v>0.3081081081081081</v>
       </c>
       <c r="C91" t="n">
-        <v>0.4754098360655738</v>
+        <v>0.3194444444444444</v>
       </c>
       <c r="D91" t="n">
         <v>0.253968253968254</v>
@@ -2806,10 +2806,10 @@
         <v>0.1634577603143418</v>
       </c>
       <c r="F91" t="n">
-        <v>0.4873323397913563</v>
+        <v>0.5201612903225807</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03757472245943638</v>
+        <v>0.07843137254901963</v>
       </c>
       <c r="H91" t="n">
         <v>0.06666666666666671</v>
@@ -2820,10 +2820,10 @@
         <v>0</v>
       </c>
       <c r="B92" t="n">
-        <v>0.4673366834170855</v>
+        <v>0.3451737451737452</v>
       </c>
       <c r="C92" t="n">
-        <v>0.4918032786885246</v>
+        <v>0.3472222222222222</v>
       </c>
       <c r="D92" t="n">
         <v>0.3968253968253968</v>
@@ -2832,10 +2832,10 @@
         <v>0.2891944990176817</v>
       </c>
       <c r="F92" t="n">
-        <v>0.4277198211624442</v>
+        <v>0.4126344086021504</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1938514090520922</v>
+        <v>0.4046345811051694</v>
       </c>
       <c r="H92" t="n">
         <v>0.01666666666666666</v>
@@ -2846,10 +2846,10 @@
         <v>0.2352941176470588</v>
       </c>
       <c r="B93" t="n">
-        <v>0.4623115577889447</v>
+        <v>0.338996138996139</v>
       </c>
       <c r="C93" t="n">
-        <v>0.6557377049180328</v>
+        <v>0.625</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
@@ -2858,10 +2858,10 @@
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>0.6289120715350225</v>
+        <v>0.775537634408602</v>
       </c>
       <c r="G93" t="n">
-        <v>0.06789069171648163</v>
+        <v>0.1417112299465241</v>
       </c>
       <c r="H93" t="n">
         <v>0.1333333333333334</v>
@@ -2872,7 +2872,7 @@
         <v>0.1176470588235294</v>
       </c>
       <c r="B94" t="n">
-        <v>0.3718592964824121</v>
+        <v>0.2277992277992278</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -2887,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>0.01024765157984628</v>
+        <v>0.0213903743315508</v>
       </c>
       <c r="H94" t="n">
         <v>0.01666666666666666</v>
@@ -2898,7 +2898,7 @@
         <v>0.4705882352941176</v>
       </c>
       <c r="B95" t="n">
-        <v>0.6030150753768845</v>
+        <v>0.5119691119691119</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -2910,10 +2910,10 @@
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>0.4470938897168406</v>
+        <v>0.4475806451612903</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04483347566182749</v>
+        <v>0.09358288770053477</v>
       </c>
       <c r="H95" t="n">
         <v>0.2833333333333333</v>
@@ -2924,10 +2924,10 @@
         <v>0.1176470588235294</v>
       </c>
       <c r="B96" t="n">
-        <v>0.6180904522613065</v>
+        <v>0.5305019305019305</v>
       </c>
       <c r="C96" t="n">
-        <v>0.3934426229508197</v>
+        <v>0.1805555555555555</v>
       </c>
       <c r="D96" t="n">
         <v>0.5079365079365079</v>
@@ -2936,10 +2936,10 @@
         <v>0.518664047151277</v>
       </c>
       <c r="F96" t="n">
-        <v>0.6274217585692996</v>
+        <v>0.7728494623655913</v>
       </c>
       <c r="G96" t="n">
-        <v>0.1887275832621691</v>
+        <v>0.393939393939394</v>
       </c>
       <c r="H96" t="n">
         <v>0.08333333333333337</v>
@@ -2950,10 +2950,10 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="B97" t="n">
-        <v>0.7236180904522613</v>
+        <v>0.6602316602316602</v>
       </c>
       <c r="C97" t="n">
-        <v>0.6721311475409837</v>
+        <v>0.6527777777777777</v>
       </c>
       <c r="D97" t="n">
         <v>0.6349206349206349</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0.6154992548435172</v>
+        <v>0.7513440860215053</v>
       </c>
       <c r="G97" t="n">
-        <v>0.2258753202391119</v>
+        <v>0.4714795008912656</v>
       </c>
       <c r="H97" t="n">
         <v>0.1166666666666667</v>
@@ -2976,10 +2976,10 @@
         <v>0.5294117647058824</v>
       </c>
       <c r="B98" t="n">
-        <v>0.5326633165829145</v>
+        <v>0.4254826254826254</v>
       </c>
       <c r="C98" t="n">
-        <v>0.4262295081967213</v>
+        <v>0.2361111111111111</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
@@ -2988,10 +2988,10 @@
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>0.4649776453055142</v>
+        <v>0.4798387096774193</v>
       </c>
       <c r="G98" t="n">
-        <v>0.1289496157130657</v>
+        <v>0.269162210338681</v>
       </c>
       <c r="H98" t="n">
         <v>0.35</v>
@@ -3002,10 +3002,10 @@
         <v>0.1176470588235294</v>
       </c>
       <c r="B99" t="n">
-        <v>0.4170854271356784</v>
+        <v>0.2833976833976834</v>
       </c>
       <c r="C99" t="n">
-        <v>0.5327868852459017</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="D99" t="n">
         <v>0.4444444444444444</v>
@@ -3014,10 +3014,10 @@
         <v>0.2074656188605108</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5484351713859911</v>
+        <v>0.6303763440860213</v>
       </c>
       <c r="G99" t="n">
-        <v>0.235269000853971</v>
+        <v>0.4910873440285206</v>
       </c>
       <c r="H99" t="n">
         <v>0.05000000000000004</v>
@@ -3028,10 +3028,10 @@
         <v>0</v>
       </c>
       <c r="B100" t="n">
-        <v>0.8894472361809045</v>
+        <v>0.8640926640926641</v>
       </c>
       <c r="C100" t="n">
-        <v>0.4918032786885246</v>
+        <v>0.3472222222222222</v>
       </c>
       <c r="D100" t="n">
         <v>0.4603174603174603</v>
@@ -3040,10 +3040,10 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5156482861400895</v>
+        <v>0.571236559139785</v>
       </c>
       <c r="G100" t="n">
-        <v>0.4244235695986336</v>
+        <v>0.8859180035650625</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3054,10 +3054,10 @@
         <v>0.4117647058823529</v>
       </c>
       <c r="B101" t="n">
-        <v>0.3115577889447236</v>
+        <v>0.1536679536679537</v>
       </c>
       <c r="C101" t="n">
-        <v>0.639344262295082</v>
+        <v>0.5972222222222221</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>
@@ -3066,10 +3066,10 @@
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>0.4858420268256334</v>
+        <v>0.5174731182795698</v>
       </c>
       <c r="G101" t="n">
-        <v>0.1336464560204953</v>
+        <v>0.2789661319073084</v>
       </c>
       <c r="H101" t="n">
         <v>0.3333333333333334</v>
@@ -3080,10 +3080,10 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="B102" t="n">
-        <v>0.8241206030150754</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="C102" t="n">
-        <v>0.6721311475409837</v>
+        <v>0.6527777777777777</v>
       </c>
       <c r="D102" t="n">
         <v>0.6825396825396826</v>
@@ -3092,10 +3092,10 @@
         <v>0.2106090373280943</v>
       </c>
       <c r="F102" t="n">
-        <v>0.488822652757079</v>
+        <v>0.5228494623655913</v>
       </c>
       <c r="G102" t="n">
-        <v>0.1122971818958155</v>
+        <v>0.2344028520499109</v>
       </c>
       <c r="H102" t="n">
         <v>0.4833333333333334</v>
@@ -3106,10 +3106,10 @@
         <v>0</v>
       </c>
       <c r="B103" t="n">
-        <v>0.3919597989949749</v>
+        <v>0.2525096525096525</v>
       </c>
       <c r="C103" t="n">
-        <v>0.7213114754098361</v>
+        <v>0.7361111111111109</v>
       </c>
       <c r="D103" t="n">
         <v>0.4603174603174603</v>
@@ -3118,10 +3118,10 @@
         <v>0.1257367387033399</v>
       </c>
       <c r="F103" t="n">
-        <v>0.549925484351714</v>
+        <v>0.6330645161290323</v>
       </c>
       <c r="G103" t="n">
-        <v>0.1520068317677199</v>
+        <v>0.3172905525846703</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3132,10 +3132,10 @@
         <v>0.7647058823529411</v>
       </c>
       <c r="B104" t="n">
-        <v>0.6331658291457286</v>
+        <v>0.5490347490347491</v>
       </c>
       <c r="C104" t="n">
-        <v>0.7377049180327869</v>
+        <v>0.7638888888888888</v>
       </c>
       <c r="D104" t="n">
         <v>0</v>
@@ -3144,10 +3144,10 @@
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>0.646795827123696</v>
+        <v>0.807795698924731</v>
       </c>
       <c r="G104" t="n">
-        <v>0.2156276686592656</v>
+        <v>0.4500891265597148</v>
       </c>
       <c r="H104" t="n">
         <v>0.35</v>
@@ -3158,10 +3158,10 @@
         <v>0.1176470588235294</v>
       </c>
       <c r="B105" t="n">
-        <v>0.7336683417085427</v>
+        <v>0.6725868725868727</v>
       </c>
       <c r="C105" t="n">
-        <v>0.6229508196721312</v>
+        <v>0.5694444444444444</v>
       </c>
       <c r="D105" t="n">
         <v>0.5555555555555556</v>
@@ -3170,10 +3170,10 @@
         <v>0.6098231827111984</v>
       </c>
       <c r="F105" t="n">
-        <v>0.5692995529061103</v>
+        <v>0.668010752688172</v>
       </c>
       <c r="G105" t="n">
-        <v>0.1071733561058924</v>
+        <v>0.2237076648841355</v>
       </c>
       <c r="H105" t="n">
         <v>0.1333333333333334</v>
@@ -3184,10 +3184,10 @@
         <v>0.2352941176470588</v>
       </c>
       <c r="B106" t="n">
-        <v>0.7939698492462312</v>
+        <v>0.7467181467181467</v>
       </c>
       <c r="C106" t="n">
-        <v>0.639344262295082</v>
+        <v>0.5972222222222221</v>
       </c>
       <c r="D106" t="n">
         <v>0</v>
@@ -3196,10 +3196,10 @@
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>0.4903129657228018</v>
+        <v>0.525537634408602</v>
       </c>
       <c r="G106" t="n">
-        <v>0.3095644748078565</v>
+        <v>0.6461675579322639</v>
       </c>
       <c r="H106" t="n">
         <v>0.1666666666666666</v>
@@ -3210,10 +3210,10 @@
         <v>0.1176470588235294</v>
       </c>
       <c r="B107" t="n">
-        <v>0.5628140703517588</v>
+        <v>0.4625482625482626</v>
       </c>
       <c r="C107" t="n">
-        <v>0.7049180327868853</v>
+        <v>0.7083333333333333</v>
       </c>
       <c r="D107" t="n">
         <v>0.6666666666666666</v>
@@ -3222,10 +3222,10 @@
         <v>0.5029469548133595</v>
       </c>
       <c r="F107" t="n">
-        <v>0.5722801788375559</v>
+        <v>0.6733870967741933</v>
       </c>
       <c r="G107" t="n">
-        <v>0.07173356105892399</v>
+        <v>0.1497326203208556</v>
       </c>
       <c r="H107" t="n">
         <v>0.1166666666666667</v>
@@ -3236,10 +3236,10 @@
         <v>0.1176470588235294</v>
       </c>
       <c r="B108" t="n">
-        <v>0.7085427135678392</v>
+        <v>0.6416988416988416</v>
       </c>
       <c r="C108" t="n">
-        <v>0.4754098360655738</v>
+        <v>0.3194444444444444</v>
       </c>
       <c r="D108" t="n">
         <v>0.5396825396825397</v>
@@ -3248,10 +3248,10 @@
         <v>0.4023575638506876</v>
       </c>
       <c r="F108" t="n">
-        <v>0.3785394932935917</v>
+        <v>0.3239247311827956</v>
       </c>
       <c r="G108" t="n">
-        <v>0.2651579846285226</v>
+        <v>0.553475935828877</v>
       </c>
       <c r="H108" t="n">
         <v>0.05000000000000004</v>
@@ -3262,10 +3262,10 @@
         <v>0.1764705882352941</v>
       </c>
       <c r="B109" t="n">
-        <v>0.8693467336683417</v>
+        <v>0.8393822393822394</v>
       </c>
       <c r="C109" t="n">
-        <v>0.639344262295082</v>
+        <v>0.5972222222222221</v>
       </c>
       <c r="D109" t="n">
         <v>0.6190476190476191</v>
@@ -3274,10 +3274,10 @@
         <v>0.581532416502947</v>
       </c>
       <c r="F109" t="n">
-        <v>0.503725782414307</v>
+        <v>0.5497311827956988</v>
       </c>
       <c r="G109" t="n">
-        <v>0.3808710503842869</v>
+        <v>0.7950089126559716</v>
       </c>
       <c r="H109" t="n">
         <v>0.1666666666666666</v>
@@ -3288,10 +3288,10 @@
         <v>0.1764705882352941</v>
       </c>
       <c r="B110" t="n">
-        <v>0.4020100502512563</v>
+        <v>0.2648648648648649</v>
       </c>
       <c r="C110" t="n">
-        <v>0.6721311475409837</v>
+        <v>0.6527777777777777</v>
       </c>
       <c r="D110" t="n">
         <v>0.492063492063492</v>
@@ -3300,10 +3300,10 @@
         <v>0.2200392927308448</v>
       </c>
       <c r="F110" t="n">
-        <v>0.5096870342771983</v>
+        <v>0.560483870967742</v>
       </c>
       <c r="G110" t="n">
-        <v>0.5183603757472245</v>
+        <v>1</v>
       </c>
       <c r="H110" t="n">
         <v>0.1</v>
@@ -3314,10 +3314,10 @@
         <v>0.4117647058823529</v>
       </c>
       <c r="B111" t="n">
-        <v>0.5477386934673367</v>
+        <v>0.444015444015444</v>
       </c>
       <c r="C111" t="n">
-        <v>0.6557377049180328</v>
+        <v>0.625</v>
       </c>
       <c r="D111" t="n">
         <v>0.492063492063492</v>
@@ -3326,10 +3326,10 @@
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>0.5350223546944859</v>
+        <v>0.6061827956989245</v>
       </c>
       <c r="G111" t="n">
-        <v>0.4479077711357814</v>
+        <v>0.9349376114081998</v>
       </c>
       <c r="H111" t="n">
         <v>0.3666666666666667</v>
@@ -3340,10 +3340,10 @@
         <v>0.2352941176470588</v>
       </c>
       <c r="B112" t="n">
-        <v>0.4874371859296482</v>
+        <v>0.3698841698841699</v>
       </c>
       <c r="C112" t="n">
-        <v>0.4918032786885246</v>
+        <v>0.3472222222222222</v>
       </c>
       <c r="D112" t="n">
         <v>0.3650793650793651</v>
@@ -3352,10 +3352,10 @@
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>0.4202682563338301</v>
+        <v>0.3991935483870967</v>
       </c>
       <c r="G112" t="n">
-        <v>0.1558497011101622</v>
+        <v>0.3253119429590018</v>
       </c>
       <c r="H112" t="n">
         <v>0.01666666666666666</v>
@@ -3366,10 +3366,10 @@
         <v>0.1176470588235294</v>
       </c>
       <c r="B113" t="n">
-        <v>0.8793969849246231</v>
+        <v>0.8517374517374519</v>
       </c>
       <c r="C113" t="n">
-        <v>0.7213114754098361</v>
+        <v>0.7361111111111109</v>
       </c>
       <c r="D113" t="n">
         <v>0</v>
@@ -3378,10 +3378,10 @@
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>0.3412816691505216</v>
+        <v>0.2567204301075268</v>
       </c>
       <c r="G113" t="n">
-        <v>0.1058923996584116</v>
+        <v>0.2210338680926917</v>
       </c>
       <c r="H113" t="n">
         <v>0.01666666666666666</v>
@@ -3392,7 +3392,7 @@
         <v>0.4117647058823529</v>
       </c>
       <c r="B114" t="n">
-        <v>0.5276381909547738</v>
+        <v>0.4193050193050193</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -3407,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>0.09692570452604611</v>
+        <v>0.2023172905525847</v>
       </c>
       <c r="H114" t="n">
         <v>0.05000000000000004</v>
@@ -3418,10 +3418,10 @@
         <v>0.4705882352941176</v>
       </c>
       <c r="B115" t="n">
-        <v>0.8391959798994975</v>
+        <v>0.8023166023166024</v>
       </c>
       <c r="C115" t="n">
-        <v>0.8688524590163935</v>
+        <v>0.9861111111111109</v>
       </c>
       <c r="D115" t="n">
         <v>0.7301587301587301</v>
@@ -3430,10 +3430,10 @@
         <v>0.7261296660117877</v>
       </c>
       <c r="F115" t="n">
-        <v>0.5603576751117736</v>
+        <v>0.6518817204301075</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03714773697694278</v>
+        <v>0.07754010695187169</v>
       </c>
       <c r="H115" t="n">
         <v>0.3666666666666667</v>
@@ -3444,10 +3444,10 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="B116" t="n">
-        <v>0.5628140703517588</v>
+        <v>0.4625482625482626</v>
       </c>
       <c r="C116" t="n">
-        <v>0.5901639344262295</v>
+        <v>0.5138888888888888</v>
       </c>
       <c r="D116" t="n">
         <v>0.4761904761904762</v>
@@ -3456,10 +3456,10 @@
         <v>0.5532416502946954</v>
       </c>
       <c r="F116" t="n">
-        <v>0.5126676602086438</v>
+        <v>0.5658602150537633</v>
       </c>
       <c r="G116" t="n">
-        <v>0.1921434671221178</v>
+        <v>0.4010695187165776</v>
       </c>
       <c r="H116" t="n">
         <v>0.06666666666666671</v>
@@ -3470,10 +3470,10 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="B117" t="n">
-        <v>0.6231155778894473</v>
+        <v>0.5366795366795367</v>
       </c>
       <c r="C117" t="n">
-        <v>0.4918032786885246</v>
+        <v>0.3472222222222222</v>
       </c>
       <c r="D117" t="n">
         <v>0.5079365079365079</v>
@@ -3482,10 +3482,10 @@
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>0.533532041728763</v>
+        <v>0.6034946236559138</v>
       </c>
       <c r="G117" t="n">
-        <v>0.1861656703672075</v>
+        <v>0.3885918003565063</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -3496,10 +3496,10 @@
         <v>0.1764705882352941</v>
       </c>
       <c r="B118" t="n">
-        <v>0.8140703517587939</v>
+        <v>0.7714285714285716</v>
       </c>
       <c r="C118" t="n">
-        <v>0.4262295081967213</v>
+        <v>0.2361111111111111</v>
       </c>
       <c r="D118" t="n">
         <v>0.6031746031746031</v>
@@ -3508,10 +3508,10 @@
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.5543964232488824</v>
+        <v>0.6411290322580645</v>
       </c>
       <c r="G118" t="n">
-        <v>0.2450896669513237</v>
+        <v>0.5115864527629235</v>
       </c>
       <c r="H118" t="n">
         <v>0.05000000000000004</v>
@@ -3522,10 +3522,10 @@
         <v>0.2352941176470588</v>
       </c>
       <c r="B119" t="n">
-        <v>0.5527638190954774</v>
+        <v>0.4501930501930502</v>
       </c>
       <c r="C119" t="n">
-        <v>0.5409836065573771</v>
+        <v>0.4305555555555555</v>
       </c>
       <c r="D119" t="n">
         <v>0</v>
@@ -3534,10 +3534,10 @@
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>0.4754098360655738</v>
+        <v>0.4986559139784946</v>
       </c>
       <c r="G119" t="n">
-        <v>0.1678052946199829</v>
+        <v>0.3502673796791444</v>
       </c>
       <c r="H119" t="n">
         <v>0.1333333333333334</v>
@@ -3548,10 +3548,10 @@
         <v>0.1176470588235294</v>
       </c>
       <c r="B120" t="n">
-        <v>0.457286432160804</v>
+        <v>0.3328185328185329</v>
       </c>
       <c r="C120" t="n">
-        <v>0.5081967213114754</v>
+        <v>0.3749999999999999</v>
       </c>
       <c r="D120" t="n">
         <v>0</v>
@@ -3560,10 +3560,10 @@
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>0.406855439642325</v>
+        <v>0.3749999999999999</v>
       </c>
       <c r="G120" t="n">
-        <v>0.1908625106746371</v>
+        <v>0.3983957219251337</v>
       </c>
       <c r="H120" t="n">
         <v>0.01666666666666666</v>
@@ -3574,7 +3574,7 @@
         <v>0.5882352941176471</v>
       </c>
       <c r="B121" t="n">
-        <v>0.577889447236181</v>
+        <v>0.4810810810810811</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -3586,10 +3586,10 @@
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>0.526080476900149</v>
+        <v>0.59005376344086</v>
       </c>
       <c r="G121" t="n">
-        <v>0.02391118701964133</v>
+        <v>0.04991087344028522</v>
       </c>
       <c r="H121" t="n">
         <v>0.1333333333333334</v>
@@ -3600,10 +3600,10 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="B122" t="n">
-        <v>0.5276381909547738</v>
+        <v>0.4193050193050193</v>
       </c>
       <c r="C122" t="n">
-        <v>0.4754098360655738</v>
+        <v>0.3194444444444444</v>
       </c>
       <c r="D122" t="n">
         <v>0</v>
@@ -3612,10 +3612,10 @@
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>0.3621460506706409</v>
+        <v>0.2943548387096774</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04654141759180187</v>
+        <v>0.09714795008912658</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -3626,10 +3626,10 @@
         <v>0.1176470588235294</v>
       </c>
       <c r="B123" t="n">
-        <v>0.5025125628140703</v>
+        <v>0.3884169884169884</v>
       </c>
       <c r="C123" t="n">
-        <v>0.5737704918032788</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="D123" t="n">
         <v>0.8253968253968254</v>
@@ -3638,10 +3638,10 @@
         <v>0.1791748526522593</v>
       </c>
       <c r="F123" t="n">
-        <v>0.6035767511177348</v>
+        <v>0.7298387096774193</v>
       </c>
       <c r="G123" t="n">
-        <v>0.2557643040136636</v>
+        <v>0.5338680926916222</v>
       </c>
       <c r="H123" t="n">
         <v>0.06666666666666671</v>
@@ -3652,10 +3652,10 @@
         <v>0.5294117647058824</v>
       </c>
       <c r="B124" t="n">
-        <v>0.5979899497487438</v>
+        <v>0.5057915057915059</v>
       </c>
       <c r="C124" t="n">
-        <v>0.6557377049180328</v>
+        <v>0.625</v>
       </c>
       <c r="D124" t="n">
         <v>0.5555555555555556</v>
@@ -3664,10 +3664,10 @@
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>0.4321907600596125</v>
+        <v>0.4206989247311827</v>
       </c>
       <c r="G124" t="n">
-        <v>0.07899231426131512</v>
+        <v>0.1648841354723708</v>
       </c>
       <c r="H124" t="n">
         <v>0.1333333333333334</v>
@@ -3678,10 +3678,10 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="B125" t="n">
-        <v>0.4522613065326633</v>
+        <v>0.3266409266409266</v>
       </c>
       <c r="C125" t="n">
-        <v>0.5081967213114754</v>
+        <v>0.3749999999999999</v>
       </c>
       <c r="D125" t="n">
         <v>0.2857142857142857</v>
@@ -3690,10 +3690,10 @@
         <v>0.1854616895874263</v>
       </c>
       <c r="F125" t="n">
-        <v>0.3740685543964233</v>
+        <v>0.3158602150537634</v>
       </c>
       <c r="G125" t="n">
-        <v>0.5081127241673783</v>
+        <v>1</v>
       </c>
       <c r="H125" t="n">
         <v>0.06666666666666671</v>
@@ -3704,10 +3704,10 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="B126" t="n">
-        <v>0.7587939698492463</v>
+        <v>0.7034749034749035</v>
       </c>
       <c r="C126" t="n">
-        <v>0.4918032786885246</v>
+        <v>0.3472222222222222</v>
       </c>
       <c r="D126" t="n">
         <v>0</v>
@@ -3716,10 +3716,10 @@
         <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>0.3889716840536513</v>
+        <v>0.3427419354838709</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04312553373185311</v>
+        <v>0.09001782531194297</v>
       </c>
       <c r="H126" t="n">
         <v>0.01666666666666666</v>
@@ -3730,10 +3730,10 @@
         <v>0.5882352941176471</v>
       </c>
       <c r="B127" t="n">
-        <v>0.507537688442211</v>
+        <v>0.3945945945945946</v>
       </c>
       <c r="C127" t="n">
-        <v>0.6229508196721312</v>
+        <v>0.5694444444444444</v>
       </c>
       <c r="D127" t="n">
         <v>0.7619047619047619</v>
@@ -3742,10 +3742,10 @@
         <v>0.5658153241650294</v>
       </c>
       <c r="F127" t="n">
-        <v>0.4903129657228018</v>
+        <v>0.525537634408602</v>
       </c>
       <c r="G127" t="n">
-        <v>0.03970964987190435</v>
+        <v>0.08288770053475938</v>
       </c>
       <c r="H127" t="n">
         <v>0.7000000000000001</v>
@@ -3756,7 +3756,7 @@
         <v>0.5882352941176471</v>
       </c>
       <c r="B128" t="n">
-        <v>0.577889447236181</v>
+        <v>0.4810810810810811</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -3771,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>0.07813834329632792</v>
+        <v>0.1631016042780749</v>
       </c>
       <c r="H128" t="n">
         <v>0.15</v>
@@ -3782,10 +3782,10 @@
         <v>0.6470588235294118</v>
       </c>
       <c r="B129" t="n">
-        <v>0.7788944723618091</v>
+        <v>0.7281853281853281</v>
       </c>
       <c r="C129" t="n">
-        <v>0.6229508196721312</v>
+        <v>0.5694444444444444</v>
       </c>
       <c r="D129" t="n">
         <v>0.4444444444444444</v>
@@ -3794,10 +3794,10 @@
         <v>0.4715127701375245</v>
       </c>
       <c r="F129" t="n">
-        <v>0.496274217585693</v>
+        <v>0.536290322580645</v>
       </c>
       <c r="G129" t="n">
-        <v>0.5444064901793338</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
         <v>0.5</v>
@@ -3808,7 +3808,7 @@
         <v>0.6470588235294118</v>
       </c>
       <c r="B130" t="n">
-        <v>0.678391959798995</v>
+        <v>0.6046332046332046</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -3820,10 +3820,10 @@
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0.7794336810730254</v>
+        <v>1</v>
       </c>
       <c r="G130" t="n">
-        <v>0.2134927412467976</v>
+        <v>0.445632798573975</v>
       </c>
       <c r="H130" t="n">
         <v>0.3166666666666667</v>
@@ -3834,10 +3834,10 @@
         <v>0.2352941176470588</v>
       </c>
       <c r="B131" t="n">
-        <v>0.949748743718593</v>
+        <v>0.9382239382239383</v>
       </c>
       <c r="C131" t="n">
-        <v>0.9016393442622951</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="D131" t="n">
         <v>0.492063492063492</v>
@@ -3846,10 +3846,10 @@
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>0.4247391952309986</v>
+        <v>0.4072580645161289</v>
       </c>
       <c r="G131" t="n">
-        <v>0.2570452604611443</v>
+        <v>0.536541889483066</v>
       </c>
       <c r="H131" t="n">
         <v>0.2666666666666667</v>
@@ -3860,10 +3860,10 @@
         <v>0.4705882352941176</v>
       </c>
       <c r="B132" t="n">
-        <v>0.9195979899497487</v>
+        <v>0.9011583011583013</v>
       </c>
       <c r="C132" t="n">
-        <v>0.5245901639344263</v>
+        <v>0.4027777777777777</v>
       </c>
       <c r="D132" t="n">
         <v>0</v>
@@ -3872,10 +3872,10 @@
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.3472429210134129</v>
+        <v>0.2674731182795699</v>
       </c>
       <c r="G132" t="n">
-        <v>0.2536293766011956</v>
+        <v>0.5294117647058825</v>
       </c>
       <c r="H132" t="n">
         <v>0.1833333333333333</v>
@@ -3886,10 +3886,10 @@
         <v>0.7058823529411764</v>
       </c>
       <c r="B133" t="n">
-        <v>0.7587939698492463</v>
+        <v>0.7034749034749035</v>
       </c>
       <c r="C133" t="n">
-        <v>0.5737704918032788</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="D133" t="n">
         <v>0.6349206349206349</v>
@@ -3898,10 +3898,10 @@
         <v>0.8518664047151276</v>
       </c>
       <c r="F133" t="n">
-        <v>0.6229508196721312</v>
+        <v>0.764784946236559</v>
       </c>
       <c r="G133" t="n">
-        <v>0.2835183603757472</v>
+        <v>0.5918003565062389</v>
       </c>
       <c r="H133" t="n">
         <v>0.2833333333333333</v>
@@ -3912,10 +3912,10 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="B134" t="n">
-        <v>0.5477386934673367</v>
+        <v>0.444015444015444</v>
       </c>
       <c r="C134" t="n">
-        <v>0.4918032786885246</v>
+        <v>0.3472222222222222</v>
       </c>
       <c r="D134" t="n">
         <v>0.126984126984127</v>
@@ -3924,10 +3924,10 @@
         <v>0.5721021611001964</v>
       </c>
       <c r="F134" t="n">
-        <v>0.3785394932935917</v>
+        <v>0.3239247311827956</v>
       </c>
       <c r="G134" t="n">
-        <v>0.3710503842869342</v>
+        <v>0.7745098039215688</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -3938,10 +3938,10 @@
         <v>0.6470588235294118</v>
       </c>
       <c r="B135" t="n">
-        <v>0.6834170854271356</v>
+        <v>0.6108108108108108</v>
       </c>
       <c r="C135" t="n">
-        <v>0.6885245901639344</v>
+        <v>0.6805555555555554</v>
       </c>
       <c r="D135" t="n">
         <v>0.5555555555555556</v>
@@ -3950,10 +3950,10 @@
         <v>0.4086444007858546</v>
       </c>
       <c r="F135" t="n">
-        <v>0.421758569299553</v>
+        <v>0.4018817204301074</v>
       </c>
       <c r="G135" t="n">
-        <v>0.07771135781383433</v>
+        <v>0.1622103386809269</v>
       </c>
       <c r="H135" t="n">
         <v>0.35</v>
@@ -3964,10 +3964,10 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="B136" t="n">
-        <v>0.9095477386934674</v>
+        <v>0.8888030888030889</v>
       </c>
       <c r="C136" t="n">
-        <v>0.639344262295082</v>
+        <v>0.5972222222222221</v>
       </c>
       <c r="D136" t="n">
         <v>0.6666666666666666</v>
@@ -3976,10 +3976,10 @@
         <v>0.9210216110019646</v>
       </c>
       <c r="F136" t="n">
-        <v>0.5961251862891208</v>
+        <v>0.7163978494623655</v>
       </c>
       <c r="G136" t="n">
-        <v>0.5038428693424423</v>
+        <v>1</v>
       </c>
       <c r="H136" t="n">
         <v>0.01666666666666666</v>
@@ -3990,10 +3990,10 @@
         <v>0.1764705882352941</v>
       </c>
       <c r="B137" t="n">
-        <v>0.5125628140703518</v>
+        <v>0.4007722007722008</v>
       </c>
       <c r="C137" t="n">
-        <v>0.6065573770491803</v>
+        <v>0.5416666666666665</v>
       </c>
       <c r="D137" t="n">
         <v>0</v>
@@ -4002,10 +4002,10 @@
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>0.4396423248882266</v>
+        <v>0.4341397849462366</v>
       </c>
       <c r="G137" t="n">
-        <v>0.01836037574722459</v>
+        <v>0.03832442067736186</v>
       </c>
       <c r="H137" t="n">
         <v>0.1833333333333333</v>
@@ -4016,10 +4016,10 @@
         <v>0.4705882352941176</v>
       </c>
       <c r="B138" t="n">
-        <v>0.6030150753768845</v>
+        <v>0.5119691119691119</v>
       </c>
       <c r="C138" t="n">
-        <v>0.7049180327868853</v>
+        <v>0.7083333333333333</v>
       </c>
       <c r="D138" t="n">
         <v>0</v>
@@ -4028,10 +4028,10 @@
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>0.4232488822652757</v>
+        <v>0.4045698924731182</v>
       </c>
       <c r="G138" t="n">
-        <v>0.07728437233134074</v>
+        <v>0.161319073083779</v>
       </c>
       <c r="H138" t="n">
         <v>0.01666666666666666</v>
@@ -4042,10 +4042,10 @@
         <v>0.7647058823529411</v>
       </c>
       <c r="B139" t="n">
-        <v>0.7939698492462312</v>
+        <v>0.7467181467181467</v>
       </c>
       <c r="C139" t="n">
-        <v>0.9344262295081968</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="D139" t="n">
         <v>0</v>
@@ -4054,10 +4054,10 @@
         <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>0.6304023845007451</v>
+        <v>0.7782258064516128</v>
       </c>
       <c r="G139" t="n">
-        <v>0.07643040136635354</v>
+        <v>0.1595365418894831</v>
       </c>
       <c r="H139" t="n">
         <v>0.3833333333333333</v>
@@ -4068,10 +4068,10 @@
         <v>0.4117647058823529</v>
       </c>
       <c r="B140" t="n">
-        <v>0.7537688442211056</v>
+        <v>0.6972972972972973</v>
       </c>
       <c r="C140" t="n">
-        <v>0.639344262295082</v>
+        <v>0.5972222222222221</v>
       </c>
       <c r="D140" t="n">
         <v>0.4603174603174603</v>
@@ -4080,10 +4080,10 @@
         <v>0.3960707269155206</v>
       </c>
       <c r="F140" t="n">
-        <v>0.5245901639344264</v>
+        <v>0.5873655913978495</v>
       </c>
       <c r="G140" t="n">
-        <v>0.2621690862510674</v>
+        <v>0.5472370766488415</v>
       </c>
       <c r="H140" t="n">
         <v>0.55</v>
@@ -4094,10 +4094,10 @@
         <v>0.1176470588235294</v>
       </c>
       <c r="B141" t="n">
-        <v>0.3417085427135678</v>
+        <v>0.1907335907335908</v>
       </c>
       <c r="C141" t="n">
-        <v>0.5081967213114754</v>
+        <v>0.3749999999999999</v>
       </c>
       <c r="D141" t="n">
         <v>0.2063492063492063</v>
@@ -4106,10 +4106,10 @@
         <v>0.04715127701375246</v>
       </c>
       <c r="F141" t="n">
-        <v>0.2995529061102832</v>
+        <v>0.1814516129032258</v>
       </c>
       <c r="G141" t="n">
-        <v>0.07643040136635354</v>
+        <v>0.1595365418894831</v>
       </c>
       <c r="H141" t="n">
         <v>0.03333333333333333</v>
@@ -4120,10 +4120,10 @@
         <v>0.1176470588235294</v>
       </c>
       <c r="B142" t="n">
-        <v>0.5628140703517588</v>
+        <v>0.4625482625482626</v>
       </c>
       <c r="C142" t="n">
-        <v>0.5409836065573771</v>
+        <v>0.4305555555555555</v>
       </c>
       <c r="D142" t="n">
         <v>0.3492063492063492</v>
@@ -4132,10 +4132,10 @@
         <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>0.3725782414307005</v>
+        <v>0.3131720430107527</v>
       </c>
       <c r="G142" t="n">
-        <v>0.09777967549103329</v>
+        <v>0.2040998217468806</v>
       </c>
       <c r="H142" t="n">
         <v>0.05000000000000004</v>
@@ -4146,10 +4146,10 @@
         <v>0.1176470588235294</v>
       </c>
       <c r="B143" t="n">
-        <v>0.4522613065326633</v>
+        <v>0.3266409266409266</v>
       </c>
       <c r="C143" t="n">
-        <v>0.4918032786885246</v>
+        <v>0.3472222222222222</v>
       </c>
       <c r="D143" t="n">
         <v>0</v>
@@ -4158,10 +4158,10 @@
         <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>0.3502235469448585</v>
+        <v>0.2728494623655913</v>
       </c>
       <c r="G143" t="n">
-        <v>0.04824935952177625</v>
+        <v>0.1007130124777184</v>
       </c>
       <c r="H143" t="n">
         <v>0.06666666666666671</v>
@@ -4172,10 +4172,10 @@
         <v>0.1176470588235294</v>
       </c>
       <c r="B144" t="n">
-        <v>0.6984924623115578</v>
+        <v>0.6293436293436294</v>
       </c>
       <c r="C144" t="n">
-        <v>0.6147540983606558</v>
+        <v>0.5555555555555554</v>
       </c>
       <c r="D144" t="n">
         <v>0</v>
@@ -4184,10 +4184,10 @@
         <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>0.3815201192250373</v>
+        <v>0.3293010752688172</v>
       </c>
       <c r="G144" t="n">
-        <v>0.03800170794192997</v>
+        <v>0.07932263814616758</v>
       </c>
       <c r="H144" t="n">
         <v>0.1333333333333334</v>
@@ -4198,10 +4198,10 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="B145" t="n">
-        <v>0.6984924623115578</v>
+        <v>0.6293436293436294</v>
       </c>
       <c r="C145" t="n">
-        <v>0.5081967213114754</v>
+        <v>0.3749999999999999</v>
       </c>
       <c r="D145" t="n">
         <v>0.6507936507936507</v>
@@ -4210,10 +4210,10 @@
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.6065573770491804</v>
+        <v>0.7352150537634408</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1955593509820666</v>
+        <v>0.4081996434937612</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -4224,10 +4224,10 @@
         <v>0</v>
       </c>
       <c r="B146" t="n">
-        <v>0.4673366834170855</v>
+        <v>0.3451737451737452</v>
       </c>
       <c r="C146" t="n">
-        <v>0.4918032786885246</v>
+        <v>0.3472222222222222</v>
       </c>
       <c r="D146" t="n">
         <v>0</v>
@@ -4236,10 +4236,10 @@
         <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>0.526080476900149</v>
+        <v>0.59005376344086</v>
       </c>
       <c r="G146" t="n">
-        <v>0.07899231426131512</v>
+        <v>0.1648841354723708</v>
       </c>
       <c r="H146" t="n">
         <v>0.06666666666666671</v>
@@ -4250,10 +4250,10 @@
         <v>0.4705882352941176</v>
       </c>
       <c r="B147" t="n">
-        <v>0.4221105527638191</v>
+        <v>0.2895752895752896</v>
       </c>
       <c r="C147" t="n">
-        <v>0.6065573770491803</v>
+        <v>0.5416666666666665</v>
       </c>
       <c r="D147" t="n">
         <v>0.492063492063492</v>
@@ -4262,10 +4262,10 @@
         <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>0.5707898658718331</v>
+        <v>0.6706989247311825</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1618274978650726</v>
+        <v>0.3377896613190731</v>
       </c>
       <c r="H147" t="n">
         <v>0.3</v>
@@ -4276,10 +4276,10 @@
         <v>0.2941176470588235</v>
       </c>
       <c r="B148" t="n">
-        <v>0.4271356783919598</v>
+        <v>0.2957528957528957</v>
       </c>
       <c r="C148" t="n">
-        <v>0.6065573770491803</v>
+        <v>0.5416666666666665</v>
       </c>
       <c r="D148" t="n">
         <v>0.3492063492063492</v>
@@ -4288,10 +4288,10 @@
         <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>0.4321907600596125</v>
+        <v>0.4206989247311827</v>
       </c>
       <c r="G148" t="n">
-        <v>0.4893253629376601</v>
+        <v>1</v>
       </c>
       <c r="H148" t="n">
         <v>0.1833333333333333</v>
@@ -4302,10 +4302,10 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="B149" t="n">
-        <v>0.3668341708542713</v>
+        <v>0.2216216216216216</v>
       </c>
       <c r="C149" t="n">
-        <v>0.4098360655737705</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="D149" t="n">
         <v>0.1587301587301587</v>
@@ -4314,10 +4314,10 @@
         <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>0.3427719821162444</v>
+        <v>0.2594086021505376</v>
       </c>
       <c r="G149" t="n">
-        <v>0.07258753202391117</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -4328,10 +4328,10 @@
         <v>0.2352941176470588</v>
       </c>
       <c r="B150" t="n">
-        <v>0.5628140703517588</v>
+        <v>0.4625482625482626</v>
       </c>
       <c r="C150" t="n">
-        <v>0.639344262295082</v>
+        <v>0.5972222222222221</v>
       </c>
       <c r="D150" t="n">
         <v>0.6349206349206349</v>
@@ -4340,10 +4340,10 @@
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>0.587183308494784</v>
+        <v>0.700268817204301</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06746370623398804</v>
+        <v>0.1408199643493761</v>
       </c>
       <c r="H150" t="n">
         <v>0.2833333333333333</v>
@@ -4354,10 +4354,10 @@
         <v>0.5294117647058824</v>
       </c>
       <c r="B151" t="n">
-        <v>0.8291457286432161</v>
+        <v>0.78996138996139</v>
       </c>
       <c r="C151" t="n">
-        <v>0.7213114754098361</v>
+        <v>0.7361111111111109</v>
       </c>
       <c r="D151" t="n">
         <v>0</v>
@@ -4366,10 +4366,10 @@
         <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>0.4530551415797318</v>
+        <v>0.4583333333333332</v>
       </c>
       <c r="G151" t="n">
-        <v>0.09564474807856531</v>
+        <v>0.1996434937611408</v>
       </c>
       <c r="H151" t="n">
         <v>0.4666666666666667</v>
@@ -4380,10 +4380,10 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="B152" t="n">
-        <v>0.3869346733668342</v>
+        <v>0.2463320463320463</v>
       </c>
       <c r="C152" t="n">
-        <v>0.459016393442623</v>
+        <v>0.2916666666666666</v>
       </c>
       <c r="D152" t="n">
         <v>0.4761904761904762</v>
@@ -4392,10 +4392,10 @@
         <v>0.1760314341846758</v>
       </c>
       <c r="F152" t="n">
-        <v>0.496274217585693</v>
+        <v>0.536290322580645</v>
       </c>
       <c r="G152" t="n">
-        <v>0.5008539709649871</v>
+        <v>1</v>
       </c>
       <c r="H152" t="n">
         <v>0.05000000000000004</v>
@@ -4406,10 +4406,10 @@
         <v>0.4705882352941176</v>
       </c>
       <c r="B153" t="n">
-        <v>0.4773869346733668</v>
+        <v>0.3575289575289576</v>
       </c>
       <c r="C153" t="n">
-        <v>0.5901639344262295</v>
+        <v>0.5138888888888888</v>
       </c>
       <c r="D153" t="n">
         <v>0</v>
@@ -4418,10 +4418,10 @@
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>0.5484351713859911</v>
+        <v>0.6303763440860213</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1737830913748932</v>
+        <v>0.3627450980392157</v>
       </c>
       <c r="H153" t="n">
         <v>0.6</v>
@@ -4432,10 +4432,10 @@
         <v>0.1176470588235294</v>
       </c>
       <c r="B154" t="n">
-        <v>0.7336683417085427</v>
+        <v>0.6725868725868727</v>
       </c>
       <c r="C154" t="n">
-        <v>0.5737704918032788</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="D154" t="n">
         <v>0.6031746031746031</v>
@@ -4444,10 +4444,10 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.4172876304023845</v>
+        <v>0.3938172043010752</v>
       </c>
       <c r="G154" t="n">
-        <v>0.1105892399658411</v>
+        <v>0.2308377896613191</v>
       </c>
       <c r="H154" t="n">
         <v>0.1333333333333334</v>
@@ -4458,10 +4458,10 @@
         <v>0.4705882352941176</v>
       </c>
       <c r="B155" t="n">
-        <v>0.3718592964824121</v>
+        <v>0.2277992277992278</v>
       </c>
       <c r="C155" t="n">
-        <v>0.5737704918032788</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="D155" t="n">
         <v>0.6349206349206349</v>
@@ -4470,10 +4470,10 @@
         <v>0.1540275049115913</v>
       </c>
       <c r="F155" t="n">
-        <v>0.526080476900149</v>
+        <v>0.59005376344086</v>
       </c>
       <c r="G155" t="n">
-        <v>0.2677198975234842</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="H155" t="n">
         <v>0.3</v>
